--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2162622.742561267</v>
+        <v>2160329.147104673</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>196.6997841156784</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>72.94942429078246</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>61.18421556648264</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>23.94563726208596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>407.0181781096235</v>
+        <v>56.54941082145617</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414546</v>
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>79.54581243241793</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>144.7268717888067</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>139.175595971221</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777587</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>76.9503019954242</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>55.04428069320112</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409457728</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.70843787977079</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805175974</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>117.4765410832877</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>135.094974540067</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1785.600156360221</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1416.63763941981</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1058.371940813059</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>672.5836882148151</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>665.6381874656116</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>249.9334371899005</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>2172.199996424343</v>
+        <v>844.329830759459</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
         <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1852.283970943245</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2184.354406119407</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167645</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>1612.258607688552</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.269056790534</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>281.0354892056666</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2001.643962205201</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C5" t="n">
-        <v>1632.681445264789</v>
+        <v>916.6290841382827</v>
       </c>
       <c r="D5" t="n">
-        <v>1274.415746658039</v>
+        <v>558.3633855315322</v>
       </c>
       <c r="E5" t="n">
-        <v>888.6274940597946</v>
+        <v>172.575132933288</v>
       </c>
       <c r="F5" t="n">
-        <v>477.641589270187</v>
+        <v>165.6296321840845</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,10 +4583,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269323</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.243802269323</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y5" t="n">
-        <v>2388.243802269323</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228008</v>
@@ -4650,10 +4650,10 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,22 +4668,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>511.4317969248226</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556436</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X7" t="n">
-        <v>732.2243760683527</v>
+        <v>362.8175152271522</v>
       </c>
       <c r="Y7" t="n">
-        <v>511.4317969248226</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>553.6195264050914</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>546.6740256558879</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228003</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031474</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>685.8122911638649</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1781.863807317535</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1560.097191887061</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.097191887061</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1305.412703681174</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1015.995533644213</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X10" t="n">
-        <v>788.005982746196</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026658</v>
+        <v>685.8122911638649</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,31 +5036,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5084,7 +5084,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714582</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872168</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,28 +5276,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687896</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>923.067041434951</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1550.665004989557</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228844</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400699</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.917417812163</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.917417812163</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.917417812163</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.917417812163</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5680,43 +5680,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6081,13 +6081,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
         <v>402.7245934908939</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6227,7 +6227,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,22 +6780,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6914,61 +6914,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>407.9027098310023</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703128</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54.95314511566545</v>
+        <v>15.64270034434924</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>-4.280525140988489e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>65.54986409393068</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462284</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.7544012944599</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667984</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405091</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229322</v>
+        <v>66.73277020259215</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.15184655856081</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752548</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>585181.2847752545</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752545</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752543</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121063</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605454</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.027935512</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312012</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312014</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,34 +26430,34 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768916</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768923</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768916</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768848</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768854</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750364.6832713811</v>
+        <v>-750364.6832713812</v>
       </c>
       <c r="C6" t="n">
-        <v>194748.4218849856</v>
+        <v>194748.421884986</v>
       </c>
       <c r="D6" t="n">
-        <v>398187.1634970924</v>
+        <v>398187.1634970923</v>
       </c>
       <c r="E6" t="n">
-        <v>148699.1488222233</v>
+        <v>148664.4108967879</v>
       </c>
       <c r="F6" t="n">
-        <v>474111.6106295785</v>
+        <v>474076.8727041428</v>
       </c>
       <c r="G6" t="n">
-        <v>474111.6106295784</v>
+        <v>474076.8727041428</v>
       </c>
       <c r="H6" t="n">
-        <v>474111.6106295784</v>
+        <v>474076.8727041426</v>
       </c>
       <c r="I6" t="n">
-        <v>474111.6106295784</v>
+        <v>474076.8727041428</v>
       </c>
       <c r="J6" t="n">
-        <v>306506.432819596</v>
+        <v>306471.6948941603</v>
       </c>
       <c r="K6" t="n">
-        <v>425001.517923524</v>
+        <v>424966.779998088</v>
       </c>
       <c r="L6" t="n">
-        <v>474111.6106295785</v>
+        <v>474076.8727041427</v>
       </c>
       <c r="M6" t="n">
-        <v>389056.5826940667</v>
+        <v>389021.8447686309</v>
       </c>
       <c r="N6" t="n">
-        <v>474111.6106295785</v>
+        <v>474076.8727041428</v>
       </c>
       <c r="O6" t="n">
-        <v>474111.6106295784</v>
+        <v>474076.8727041424</v>
       </c>
       <c r="P6" t="n">
-        <v>474111.6106295783</v>
+        <v>474076.8727041426</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>104.318768446727</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>313.2885143652711</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>85.24974708008654</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>262.5773610745051</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>3.903547543829916</v>
+        <v>354.3723148319973</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>146.1638429566192</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>73.85778156328811</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>271.7461296822324</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923762</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>90.29651910320364</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>134.7247446382408</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-3.385985881593205e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>289.753744452628</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,34 +32078,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>353.3934907042778</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32482,7 +32482,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,25 +33500,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>652.3203287778402</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>506.5895320981975</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>304.6326742391977</v>
+        <v>265.3222294678816</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>151.912305478269</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998936</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>219.4190832899476</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>520.978616694507</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060468</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
